--- a/biology/Botanique/Vigna_reflexopilosa/Vigna_reflexopilosa.xlsx
+++ b/biology/Botanique/Vigna_reflexopilosa/Vigna_reflexopilosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vigna reflexo-pilosa est une espèce de plantes dicotylédones de la famille des Fabaceae (légumineuses), sous-famille des Faboideae, originaire de l'Asie du Sud-Est et d'Australasie. C'est une espèce tétraploïde contrairement aux autres espèces du genre Vigna qui sont diploïdes (2n = 2x =22).
 </t>
@@ -513,15 +525,54 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Synonymes
-Selon The Plant List            (8 août 2021)[1] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (8 août 2021) :
 Azukia reflexopilosa (Hayata) Ohwi
 Phaseolus mungo sensu F.B.Forbes &amp; Hemsl.
 Phaseolus neocaledonicus Baker f.
 Phaseolus reflexopilosus (Hayata) Ohwi
-Vigna catjang var. sinensis sensu Matsum.
-Variétés
-Selon NCBI  (8 août 2021)[2] :
+Vigna catjang var. sinensis sensu Matsum.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Vigna_reflexopilosa</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vigna_reflexopilosa</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Variétés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (8 août 2021) :
 Vigna reflexopilosa var. glabra (Roxb.) N.Tomooka &amp; Maxted
 Vigna reflexopilosa var. reflexopilosa</t>
         </is>
